--- a/NGONG BUTCHERS.xlsx
+++ b/NGONG BUTCHERS.xlsx
@@ -22643,8 +22643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22943,10 +22943,12 @@
         <f t="shared" si="2"/>
         <v>14600</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="33">
+        <v>14600</v>
+      </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -24605,11 +24607,11 @@
       </c>
       <c r="L57" s="33">
         <f>SUM(L5:L56)</f>
-        <v>21520</v>
+        <v>36120</v>
       </c>
       <c r="M57" s="33">
         <f>SUM(M5:M56)</f>
-        <v>603545</v>
+        <v>588945</v>
       </c>
       <c r="N57" s="33">
         <f>SUM(N5:N56)</f>
@@ -24706,7 +24708,7 @@
       </c>
       <c r="H61" s="44">
         <f>L57</f>
-        <v>21520</v>
+        <v>36120</v>
       </c>
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
@@ -24967,7 +24969,7 @@
       <c r="D74" s="36"/>
       <c r="E74" s="36">
         <f>L57</f>
-        <v>21520</v>
+        <v>36120</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="50" t="s">
@@ -24978,7 +24980,7 @@
       <c r="J74" s="36"/>
       <c r="K74" s="36">
         <f>L57</f>
-        <v>21520</v>
+        <v>36120</v>
       </c>
       <c r="L74" s="36"/>
       <c r="M74" s="30"/>
@@ -25008,24 +25010,24 @@
       <c r="D76" s="48"/>
       <c r="E76" s="52">
         <f>SUM(E71:E75)</f>
-        <v>43345</v>
+        <v>57945</v>
       </c>
       <c r="F76" s="48">
         <f>C76-E76</f>
-        <v>525602.1</v>
+        <v>511002.1</v>
       </c>
       <c r="G76" s="51" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="48">
         <f>H61+H63+H69</f>
-        <v>-518.90000000002328</v>
+        <v>14081.099999999977</v>
       </c>
       <c r="I76" s="48"/>
       <c r="J76" s="48"/>
       <c r="K76" s="48">
         <f>SUM(K71:K75)</f>
-        <v>43345</v>
+        <v>57945</v>
       </c>
       <c r="L76" s="48">
         <f>H76-K76</f>
@@ -25041,7 +25043,7 @@
       <c r="D77" s="30"/>
       <c r="E77" s="45">
         <f>F76+E71</f>
-        <v>547427.1</v>
+        <v>532827.1</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>22</v>
@@ -25052,7 +25054,7 @@
       <c r="J77" s="30"/>
       <c r="K77" s="45">
         <f>K76-K71</f>
-        <v>21520</v>
+        <v>36120</v>
       </c>
       <c r="L77" s="30" t="s">
         <v>23</v>

--- a/NGONG BUTCHERS.xlsx
+++ b/NGONG BUTCHERS.xlsx
@@ -22643,8 +22643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22981,10 +22981,12 @@
         <f t="shared" si="2"/>
         <v>14580</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="33">
+        <v>14580</v>
+      </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>14580</v>
+        <v>0</v>
       </c>
       <c r="N11" s="33"/>
       <c r="O11" s="30"/>
@@ -23054,10 +23056,12 @@
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="33">
+        <v>10000</v>
+      </c>
       <c r="M13" s="33">
         <f t="shared" si="0"/>
-        <v>11600</v>
+        <v>1600</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="30"/>
@@ -23157,10 +23161,12 @@
         <f t="shared" si="2"/>
         <v>10631</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="33">
+        <v>10000</v>
+      </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>10631</v>
+        <v>631</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="30"/>
@@ -23268,10 +23274,12 @@
         <f t="shared" si="2"/>
         <v>9880</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="33">
+        <v>9880</v>
+      </c>
       <c r="M19" s="33">
         <f t="shared" si="0"/>
-        <v>9880</v>
+        <v>0</v>
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="30"/>
@@ -23470,10 +23478,12 @@
         <f t="shared" si="2"/>
         <v>9880</v>
       </c>
-      <c r="L25" s="33"/>
+      <c r="L25" s="33">
+        <v>9880</v>
+      </c>
       <c r="M25" s="33">
         <f t="shared" si="0"/>
-        <v>9880</v>
+        <v>0</v>
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="30"/>
@@ -23507,10 +23517,12 @@
         <f t="shared" si="2"/>
         <v>9760</v>
       </c>
-      <c r="L26" s="33"/>
+      <c r="L26" s="33">
+        <v>9000</v>
+      </c>
       <c r="M26" s="33">
         <f t="shared" si="0"/>
-        <v>9760</v>
+        <v>760</v>
       </c>
       <c r="N26" s="33"/>
       <c r="O26" s="30"/>
@@ -23797,10 +23809,12 @@
         <f t="shared" si="2"/>
         <v>14520</v>
       </c>
-      <c r="L34" s="33"/>
+      <c r="L34" s="33">
+        <v>14520</v>
+      </c>
       <c r="M34" s="33">
         <f t="shared" si="0"/>
-        <v>14520</v>
+        <v>0</v>
       </c>
       <c r="N34" s="33"/>
       <c r="O34" s="30"/>
@@ -23871,10 +23885,12 @@
         <f t="shared" si="2"/>
         <v>22020</v>
       </c>
-      <c r="L36" s="33"/>
+      <c r="L36" s="33">
+        <v>14000</v>
+      </c>
       <c r="M36" s="33">
         <f t="shared" si="0"/>
-        <v>22020</v>
+        <v>8020</v>
       </c>
       <c r="N36" s="33"/>
       <c r="O36" s="30"/>
@@ -23982,10 +23998,12 @@
         <f t="shared" si="2"/>
         <v>14732</v>
       </c>
-      <c r="L39" s="33"/>
+      <c r="L39" s="33">
+        <v>14550</v>
+      </c>
       <c r="M39" s="33">
         <f t="shared" si="0"/>
-        <v>14732</v>
+        <v>182</v>
       </c>
       <c r="N39" s="33"/>
       <c r="O39" s="30"/>
@@ -24607,11 +24625,11 @@
       </c>
       <c r="L57" s="33">
         <f>SUM(L5:L56)</f>
-        <v>36120</v>
+        <v>142530</v>
       </c>
       <c r="M57" s="33">
         <f>SUM(M5:M56)</f>
-        <v>588945</v>
+        <v>482535</v>
       </c>
       <c r="N57" s="33">
         <f>SUM(N5:N56)</f>
@@ -24708,7 +24726,7 @@
       </c>
       <c r="H61" s="44">
         <f>L57</f>
-        <v>36120</v>
+        <v>142530</v>
       </c>
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
@@ -24969,7 +24987,7 @@
       <c r="D74" s="36"/>
       <c r="E74" s="36">
         <f>L57</f>
-        <v>36120</v>
+        <v>142530</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="50" t="s">
@@ -24980,7 +24998,7 @@
       <c r="J74" s="36"/>
       <c r="K74" s="36">
         <f>L57</f>
-        <v>36120</v>
+        <v>142530</v>
       </c>
       <c r="L74" s="36"/>
       <c r="M74" s="30"/>
@@ -25010,24 +25028,24 @@
       <c r="D76" s="48"/>
       <c r="E76" s="52">
         <f>SUM(E71:E75)</f>
-        <v>57945</v>
+        <v>164355</v>
       </c>
       <c r="F76" s="48">
         <f>C76-E76</f>
-        <v>511002.1</v>
+        <v>404592.1</v>
       </c>
       <c r="G76" s="51" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="48">
         <f>H61+H63+H69</f>
-        <v>14081.099999999977</v>
+        <v>120491.09999999998</v>
       </c>
       <c r="I76" s="48"/>
       <c r="J76" s="48"/>
       <c r="K76" s="48">
         <f>SUM(K71:K75)</f>
-        <v>57945</v>
+        <v>164355</v>
       </c>
       <c r="L76" s="48">
         <f>H76-K76</f>
@@ -25043,7 +25061,7 @@
       <c r="D77" s="30"/>
       <c r="E77" s="45">
         <f>F76+E71</f>
-        <v>532827.1</v>
+        <v>426417.1</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>22</v>
@@ -25054,7 +25072,7 @@
       <c r="J77" s="30"/>
       <c r="K77" s="45">
         <f>K76-K71</f>
-        <v>36120</v>
+        <v>142530</v>
       </c>
       <c r="L77" s="30" t="s">
         <v>23</v>
